--- a/RAT/RAT_WRAPPER_TESTS.xlsx
+++ b/RAT/RAT_WRAPPER_TESTS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="8085" windowHeight="11865" activeTab="1"/>
+    <workbookView windowWidth="25095" windowHeight="12735" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Phase1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="60">
   <si>
     <t>Expected Out</t>
   </si>
@@ -126,16 +126,22 @@
     <t>MOV, LD, ST, CMP, OUT, SUB, BRNE, BREQ, OR, ADD</t>
   </si>
   <si>
+    <t>PUSH,POP, WSP, CALL, RET</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>4b</t>
+  </si>
+  <si>
+    <t>LEDS light up R-&gt;L, LD3-LD7 at same time. Infinite loop</t>
+  </si>
+  <si>
+    <t>MOV, LD, ST, CMP,OUT,  SUB, BRNE,BREQ, OR,  BRN</t>
+  </si>
+  <si>
     <t>PUSH, POP, WSP, CALL, RET</t>
-  </si>
-  <si>
-    <t>4b</t>
-  </si>
-  <si>
-    <t>LEDS light up R-&gt;L, LD3-LD7 at same time. Infinite loop</t>
-  </si>
-  <si>
-    <t>MOV, LD, ST, CMP,OUT,  SUB, BRNE,BREQ, OR,  BRN</t>
   </si>
   <si>
     <t>5a</t>
@@ -1375,8 +1381,8 @@
   </sheetPr>
   <dimension ref="A1:Z15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4333333333333" defaultRowHeight="15" customHeight="1"/>
@@ -1384,7 +1390,7 @@
     <col min="1" max="1" width="8.71333333333333" customWidth="1"/>
     <col min="2" max="2" width="48.86" customWidth="1"/>
     <col min="3" max="3" width="43.4333333333333" customWidth="1"/>
-    <col min="4" max="4" width="29.14" customWidth="1"/>
+    <col min="4" max="4" width="40.3" customWidth="1"/>
     <col min="5" max="26" width="8.71333333333333" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1492,7 +1498,9 @@
       <c r="D4" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="E4" s="4"/>
+      <c r="E4" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
@@ -1515,34 +1523,39 @@
       <c r="Y4" s="4"/>
       <c r="Z4" s="4"/>
     </row>
-    <row r="5" ht="12.75" spans="1:4">
+    <row r="5" spans="1:5">
       <c r="A5" s="6" t="s">
+        <v>38</v>
+      </c>
+      <c r="B5" t="s">
+        <v>39</v>
+      </c>
+      <c r="C5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E5" t="s">
         <v>37</v>
       </c>
-      <c r="B5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" ht="12.75" spans="1:26">
+    </row>
+    <row r="6" spans="1:26">
       <c r="A6" s="2" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="4"/>
+        <v>45</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
@@ -1567,13 +1580,13 @@
     </row>
     <row r="7" ht="12.75" spans="1:4">
       <c r="A7" s="6" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
         <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s">
         <v>22</v>
@@ -1581,10 +1594,10 @@
     </row>
     <row r="8" ht="12.75" spans="1:26">
       <c r="A8" s="3" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C8" s="4"/>
       <c r="D8" s="4"/>
@@ -1613,23 +1626,23 @@
     </row>
     <row r="9" customHeight="1" spans="2:2">
       <c r="B9" s="8" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" ht="12.75" spans="1:1">
       <c r="A14" s="5" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" ht="12.75" spans="1:4">
       <c r="A15" s="5" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
         <v>16</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
         <v>18</v>
@@ -1698,16 +1711,16 @@
     </row>
     <row r="2" ht="12.75" spans="1:26">
       <c r="A2" s="2" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -1734,12 +1747,12 @@
     </row>
     <row r="3" ht="12.75" spans="2:2">
       <c r="B3" s="5" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" ht="12.75" spans="2:2">
       <c r="B4" s="5" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/RAT/RAT_WRAPPER_TESTS.xlsx
+++ b/RAT/RAT_WRAPPER_TESTS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25095" windowHeight="12735" activeTab="1"/>
+    <workbookView windowWidth="8085" windowHeight="11865" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Phase1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="60">
   <si>
     <t>Expected Out</t>
   </si>
@@ -1382,7 +1382,7 @@
   <dimension ref="A1:Z15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4333333333333" defaultRowHeight="15" customHeight="1"/>
@@ -1578,7 +1578,7 @@
       <c r="Y6" s="4"/>
       <c r="Z6" s="4"/>
     </row>
-    <row r="7" ht="12.75" spans="1:4">
+    <row r="7" ht="12.75" spans="1:5">
       <c r="A7" s="6" t="s">
         <v>46</v>
       </c>
@@ -1590,6 +1590,9 @@
       </c>
       <c r="D7" t="s">
         <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="8" ht="12.75" spans="1:26">
